--- a/Data/electric_car_market.xlsx
+++ b/Data/electric_car_market.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavinsbigmacpro/Desktop/Senior Project/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavinsbigmacpro/Desktop/Senior Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1350C36-6F66-7147-8C7B-F7C2B874B048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48354732-0097-9A4A-A564-0B7AC49687AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{5C88D218-917B-6440-B462-7EC2E9082060}"/>
+    <workbookView xWindow="18760" yWindow="440" windowWidth="10000" windowHeight="17440" xr2:uid="{5C88D218-917B-6440-B462-7EC2E9082060}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="71">
   <si>
     <t>GMC Hummer EV Pickup</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>Mercedes GLC SUV</t>
+  </si>
+  <si>
+    <t>kWh</t>
   </si>
 </sst>
 </file>
@@ -615,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30A39E8-1C05-BC42-BB99-1FE02872DA93}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -627,15 +630,15 @@
     <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="11.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="54.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" customWidth="1"/>
-    <col min="9" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="5" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="54.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" customWidth="1"/>
+    <col min="10" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -652,28 +655,31 @@
         <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,35 +689,38 @@
       <c r="C2" s="3">
         <v>1000</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="D2" s="3">
+        <v>47</v>
+      </c>
+      <c r="E2" s="3">
+        <v>329</v>
+      </c>
+      <c r="F2" s="3">
+        <v>63</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>104200</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>475</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>10</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>300</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -727,29 +736,32 @@
       <c r="E3" s="3">
         <v>238</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="3">
+        <v>41</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>105790</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>444</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>22</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>424</v>
       </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -765,29 +777,32 @@
       <c r="E4" s="3">
         <v>350</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="3">
+        <v>29.5</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>111100</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>429</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>24</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>530</v>
       </c>
-      <c r="L4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -803,29 +818,32 @@
       <c r="E5" s="3">
         <v>348</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="3">
+        <v>32</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>93500</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>500</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>17</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <v>374</v>
       </c>
-      <c r="L5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="38" x14ac:dyDescent="0.2">
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="38" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -841,29 +859,32 @@
       <c r="E6" s="3">
         <v>405</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="3">
+        <v>28</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>84330</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <v>523</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>20</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <v>360</v>
       </c>
-      <c r="L6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -879,29 +900,32 @@
       <c r="E7" s="3">
         <v>200</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="3">
+        <v>41</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>93850</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <v>325</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>20</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="3">
         <v>474</v>
       </c>
-      <c r="L7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -917,29 +941,32 @@
       <c r="E8" s="3">
         <v>406</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="3">
+        <v>27</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>83995</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>668</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>16</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>272</v>
       </c>
-      <c r="L8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="M8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -955,29 +982,32 @@
       <c r="E9" s="3">
         <v>260</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="3">
+        <v>46.9</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>77490</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>470</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>14</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>301</v>
       </c>
-      <c r="L9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="M9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -993,29 +1023,32 @@
       <c r="E10" s="3">
         <v>234</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="F10" s="3">
+        <v>44</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>75200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>429</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>20</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>448</v>
       </c>
-      <c r="L10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="M10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1031,29 +1064,32 @@
       <c r="E11" s="3">
         <v>260</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="F11" s="3">
+        <v>47</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>77780</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="3">
         <v>702</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="3">
         <v>12</v>
       </c>
-      <c r="K11" s="3">
+      <c r="L11" s="3">
         <v>396</v>
       </c>
-      <c r="L11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="M11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1069,29 +1105,32 @@
       <c r="E12" s="3">
         <v>222</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="F12" s="3">
+        <v>43</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>59200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>349</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>20</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>370</v>
       </c>
-      <c r="L12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="M12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1107,29 +1146,32 @@
       <c r="E13" s="3">
         <v>226</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="F13" s="3">
+        <v>33</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <v>56200</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <v>295</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>25</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L13" s="3">
         <v>397.5</v>
       </c>
-      <c r="L13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="M13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1145,29 +1187,32 @@
       <c r="E14" s="3">
         <v>223</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="3">
+        <v>39</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>50900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>250</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>25</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>470</v>
       </c>
-      <c r="L14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="M14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1183,29 +1228,32 @@
       <c r="E15" s="3">
         <v>330</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="F15" s="3">
+        <v>27</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>51800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>248</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>25</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>430</v>
       </c>
-      <c r="L15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="M15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1221,29 +1269,32 @@
       <c r="E16" s="3">
         <v>270</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="F16" s="3">
+        <v>32</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <v>46200</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
         <v>250</v>
       </c>
-      <c r="J16" s="3">
+      <c r="K16" s="3">
         <v>25</v>
       </c>
-      <c r="K16" s="3">
+      <c r="L16" s="3">
         <v>398</v>
       </c>
-      <c r="L16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="M16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1259,29 +1310,32 @@
       <c r="E17" s="3">
         <v>272</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="F17" s="3">
+        <v>23</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>45800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>306</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>27</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>391</v>
       </c>
-      <c r="L17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="M17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1297,29 +1351,32 @@
       <c r="E18" s="3">
         <v>241</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="F18" s="3">
+        <v>36</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>43995</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>235</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>25</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>550</v>
       </c>
-      <c r="L18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="M18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1335,29 +1392,32 @@
       <c r="E19" s="3">
         <v>247</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="F19" s="3">
+        <v>33</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="3">
+      <c r="I19" s="3">
         <v>42295</v>
       </c>
-      <c r="I19" s="3">
+      <c r="J19" s="3">
         <v>450</v>
       </c>
-      <c r="J19" s="3">
+      <c r="K19" s="3">
         <v>18</v>
       </c>
-      <c r="K19" s="3">
+      <c r="L19" s="3">
         <v>288</v>
       </c>
-      <c r="L19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="M19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1373,29 +1433,32 @@
       <c r="E20" s="3">
         <v>220</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="F20" s="3">
+        <v>30</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>43850</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>255</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>25</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>435</v>
       </c>
-      <c r="L20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="M20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1411,29 +1474,32 @@
       <c r="E21" s="3">
         <v>232</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="F21" s="3">
+        <v>29</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>41450</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>255</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>30</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>468</v>
       </c>
-      <c r="L21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="M21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -1449,29 +1515,32 @@
       <c r="E22" s="3">
         <v>260</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="F22" s="3">
+        <v>32</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>40750</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>25</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>450</v>
       </c>
-      <c r="L22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="M22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -1487,29 +1556,32 @@
       <c r="E23" s="3">
         <v>239</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="F23" s="3">
+        <v>30</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>36290</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>26</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>416</v>
       </c>
-      <c r="L23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="M23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -1525,29 +1597,32 @@
       <c r="E24" s="3">
         <v>258</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="F24" s="3">
+        <v>30</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>33390</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>291</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>24</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>432</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -1563,29 +1638,32 @@
       <c r="E25" s="3">
         <v>247</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="F25" s="3">
+        <v>29</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H25" s="3">
+      <c r="I25" s="3">
         <v>33400</v>
       </c>
-      <c r="I25" s="3">
+      <c r="J25" s="3">
         <v>228</v>
       </c>
-      <c r="J25" s="3">
+      <c r="K25" s="3">
         <v>24</v>
       </c>
-      <c r="K25" s="3">
+      <c r="L25" s="3">
         <v>464</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -1601,29 +1679,32 @@
       <c r="E26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="F26" s="3">
+        <v>37</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>32660</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>187</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>27</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>413</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
@@ -1639,29 +1720,32 @@
       <c r="E27" s="3">
         <v>259</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="F27" s="3">
+        <v>28</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>33400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>228</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>24</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>464</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
@@ -1677,29 +1761,32 @@
       <c r="E28" s="3">
         <v>114</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="F28" s="3">
+        <v>31</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="3">
+      <c r="I28" s="3">
         <v>29900</v>
       </c>
-      <c r="I28" s="3">
+      <c r="J28" s="3">
         <v>189</v>
       </c>
-      <c r="J28" s="3">
+      <c r="K28" s="3">
         <v>29</v>
       </c>
-      <c r="K28" s="3">
+      <c r="L28" s="3">
         <v>377</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -1715,25 +1802,28 @@
       <c r="E29" s="3">
         <v>149</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="F29" s="3">
+        <v>30</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>27500</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>182</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>29</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>469</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>61</v>
       </c>
     </row>

--- a/Data/electric_car_market.xlsx
+++ b/Data/electric_car_market.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavinsbigmacpro/Desktop/Senior Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48354732-0097-9A4A-A564-0B7AC49687AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C1ECBB-4871-F447-A4FF-0DF7A75C0C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18760" yWindow="440" windowWidth="10000" windowHeight="17440" xr2:uid="{5C88D218-917B-6440-B462-7EC2E9082060}"/>
+    <workbookView xWindow="12980" yWindow="480" windowWidth="15580" windowHeight="17440" xr2:uid="{5C88D218-917B-6440-B462-7EC2E9082060}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -151,9 +151,6 @@
     <t>Diesel</t>
   </si>
   <si>
-    <t xml:space="preserve">Mercedes S Class 500 </t>
-  </si>
-  <si>
     <t>Comparable_fuel_model</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
     <t>Volvo XC90</t>
   </si>
   <si>
-    <t xml:space="preserve">Audi S3 </t>
-  </si>
-  <si>
     <t>Volvo V60 Cross Country</t>
   </si>
   <si>
@@ -223,9 +217,6 @@
     <t>Regular Unleaded</t>
   </si>
   <si>
-    <t xml:space="preserve">Mini Clubman </t>
-  </si>
-  <si>
     <t>Chevrolet Blazer</t>
   </si>
   <si>
@@ -235,19 +226,28 @@
     <t>Kia Telluride</t>
   </si>
   <si>
-    <t xml:space="preserve">Kia Stinger </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volkswagen Arteon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMW 330i </t>
-  </si>
-  <si>
     <t>Mercedes GLC SUV</t>
   </si>
   <si>
     <t>kWh</t>
+  </si>
+  <si>
+    <t>Mercedes S Class 500</t>
+  </si>
+  <si>
+    <t>Audi S3</t>
+  </si>
+  <si>
+    <t>BMW 330i</t>
+  </si>
+  <si>
+    <t>Volkswagen Arteon</t>
+  </si>
+  <si>
+    <t>Kia Stinger</t>
+  </si>
+  <si>
+    <t>Mini Clubman</t>
   </si>
 </sst>
 </file>
@@ -621,7 +621,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -655,28 +655,28 @@
         <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.25">
@@ -699,7 +699,7 @@
         <v>63</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>34</v>
@@ -740,7 +740,7 @@
         <v>41</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>35</v>
@@ -781,10 +781,10 @@
         <v>29.5</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="I4" s="3">
         <v>111100</v>
@@ -822,7 +822,7 @@
         <v>32</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>35</v>
@@ -863,10 +863,10 @@
         <v>28</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" s="3">
         <v>84330</v>
@@ -904,10 +904,10 @@
         <v>41</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" s="3">
         <v>93850</v>
@@ -945,10 +945,10 @@
         <v>27</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="I8" s="3">
         <v>83995</v>
@@ -986,10 +986,10 @@
         <v>46.9</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I9" s="3">
         <v>77490</v>
@@ -1027,10 +1027,10 @@
         <v>44</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I10" s="3">
         <v>75200</v>
@@ -1068,10 +1068,10 @@
         <v>47</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" s="3">
         <v>77780</v>
@@ -1109,10 +1109,10 @@
         <v>43</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I12" s="3">
         <v>59200</v>
@@ -1150,10 +1150,10 @@
         <v>33</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I13" s="3">
         <v>56200</v>
@@ -1191,10 +1191,10 @@
         <v>39</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I14" s="3">
         <v>50900</v>
@@ -1232,10 +1232,10 @@
         <v>27</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I15" s="3">
         <v>51800</v>
@@ -1273,10 +1273,10 @@
         <v>32</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I16" s="3">
         <v>46200</v>
@@ -1314,10 +1314,10 @@
         <v>23</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I17" s="3">
         <v>45800</v>
@@ -1355,10 +1355,10 @@
         <v>36</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I18" s="3">
         <v>43995</v>
@@ -1396,10 +1396,10 @@
         <v>33</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I19" s="3">
         <v>42295</v>
@@ -1437,10 +1437,10 @@
         <v>30</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I20" s="3">
         <v>43850</v>
@@ -1478,10 +1478,10 @@
         <v>29</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" s="3">
         <v>41450</v>
@@ -1519,10 +1519,10 @@
         <v>32</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I22" s="3">
         <v>40750</v>
@@ -1560,10 +1560,10 @@
         <v>30</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I23" s="3">
         <v>36290</v>
@@ -1601,10 +1601,10 @@
         <v>30</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I24" s="3">
         <v>33390</v>
@@ -1619,7 +1619,7 @@
         <v>432</v>
       </c>
       <c r="M24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.2">
@@ -1642,10 +1642,10 @@
         <v>29</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I25" s="3">
         <v>33400</v>
@@ -1660,7 +1660,7 @@
         <v>464</v>
       </c>
       <c r="M25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.2">
@@ -1683,10 +1683,10 @@
         <v>37</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I26" s="3">
         <v>32660</v>
@@ -1701,7 +1701,7 @@
         <v>413</v>
       </c>
       <c r="M26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.2">
@@ -1724,10 +1724,10 @@
         <v>28</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I27" s="3">
         <v>33400</v>
@@ -1742,7 +1742,7 @@
         <v>464</v>
       </c>
       <c r="M27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.2">
@@ -1765,10 +1765,10 @@
         <v>31</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I28" s="3">
         <v>29900</v>
@@ -1783,7 +1783,7 @@
         <v>377</v>
       </c>
       <c r="M28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.2">
@@ -1806,10 +1806,10 @@
         <v>30</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I29" s="3">
         <v>27500</v>
@@ -1824,7 +1824,7 @@
         <v>469</v>
       </c>
       <c r="M29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
